--- a/Data/Profiles.xlsx
+++ b/Data/Profiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/ana_popovic_uts_edu_au/Documents/R_Projects/Dynamic-Network-Visualisation/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/ana_popovic_uts_edu_au/Documents/R_Projects/Dual-approach-for-score-evaluation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_4D2BCA6A1F9AF7382A90E5599C45AC1A14F31C63" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3A34DB7-DDDF-4F16-B398-6AE7B2CA6537}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="11_4D2BCA6A1F9AF7382A90E5599C45AC1A14F31C63" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{721E4F0B-5FDF-455D-9C82-842490573141}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="2" r:id="rId1"/>
@@ -2841,7 +2841,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18314,19 +18344,19 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A425 A436:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A426:A435">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A426:A435">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A426:A435">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18337,8 +18367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N399" sqref="N399"/>
+    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T451" sqref="T451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33226,16 +33256,16 @@
         <v>900</v>
       </c>
       <c r="B426">
-        <v>1.8889</v>
+        <v>1.9822</v>
       </c>
       <c r="C426">
         <v>0</v>
       </c>
       <c r="D426">
-        <v>1.9818</v>
+        <v>1.9345000000000001</v>
       </c>
       <c r="E426">
-        <v>2.9908999999999999</v>
+        <v>2.9992000000000001</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -33253,7 +33283,7 @@
         <v>0</v>
       </c>
       <c r="K426">
-        <v>0.99550000000000005</v>
+        <v>1.1208</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
@@ -33261,7 +33291,7 @@
         <v>901</v>
       </c>
       <c r="B427">
-        <v>1.8222</v>
+        <v>1.8822000000000001</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -33296,13 +33326,13 @@
         <v>902</v>
       </c>
       <c r="B428">
-        <v>1.7043999999999999</v>
+        <v>1.5044</v>
       </c>
       <c r="C428">
         <v>0</v>
       </c>
       <c r="D428">
-        <v>1.6696</v>
+        <v>1.0696000000000001</v>
       </c>
       <c r="E428">
         <v>3.0356000000000001</v>
@@ -33311,7 +33341,7 @@
         <v>0</v>
       </c>
       <c r="G428">
-        <v>0</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="H428">
         <v>0</v>
@@ -33331,13 +33361,13 @@
         <v>903</v>
       </c>
       <c r="B429">
-        <v>1.7053</v>
+        <v>1.5053000000000001</v>
       </c>
       <c r="C429">
         <v>0</v>
       </c>
       <c r="D429">
-        <v>1.6385000000000001</v>
+        <v>1.0385</v>
       </c>
       <c r="E429">
         <v>3.0304000000000002</v>
@@ -33346,7 +33376,7 @@
         <v>0</v>
       </c>
       <c r="G429">
-        <v>0</v>
+        <v>0.92230000000000001</v>
       </c>
       <c r="H429">
         <v>0</v>
@@ -33404,7 +33434,7 @@
         <v>0</v>
       </c>
       <c r="C431">
-        <v>2.9504999999999999</v>
+        <v>3.9504999999999999</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -33425,10 +33455,10 @@
         <v>0</v>
       </c>
       <c r="J431">
-        <v>1.2277</v>
+        <v>1.5277000000000001</v>
       </c>
       <c r="K431">
-        <v>2.1802000000000001</v>
+        <v>1.1801999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
@@ -33439,7 +33469,7 @@
         <v>0</v>
       </c>
       <c r="C432">
-        <v>2.9809999999999999</v>
+        <v>3.9809999999999999</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -33463,7 +33493,7 @@
         <v>1.2732000000000001</v>
       </c>
       <c r="K432">
-        <v>2.0712999999999999</v>
+        <v>1.0712999999999999</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -33474,7 +33504,7 @@
         <v>0</v>
       </c>
       <c r="C433">
-        <v>2.2448000000000001</v>
+        <v>3.2448000000000001</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -33486,7 +33516,7 @@
         <v>0</v>
       </c>
       <c r="G433">
-        <v>2.4419</v>
+        <v>1.5419</v>
       </c>
       <c r="H433">
         <v>0.98160000000000003</v>
@@ -33495,7 +33525,7 @@
         <v>0</v>
       </c>
       <c r="J433">
-        <v>1.3532999999999999</v>
+        <v>2.3532999999999999</v>
       </c>
       <c r="K433">
         <v>2.0972</v>
@@ -33509,7 +33539,7 @@
         <v>0</v>
       </c>
       <c r="C434">
-        <v>2.2275999999999998</v>
+        <v>3.2275999999999998</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -33521,10 +33551,10 @@
         <v>0</v>
       </c>
       <c r="G434">
-        <v>2.3022999999999998</v>
+        <v>1.8023</v>
       </c>
       <c r="H434">
-        <v>1.3991</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="I434">
         <v>0</v>
@@ -33559,13 +33589,13 @@
         <v>2.4784999999999999</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>0.86609999999999998</v>
       </c>
       <c r="I435">
         <v>0</v>
       </c>
       <c r="J435">
-        <v>1.5175000000000001</v>
+        <v>2.5175000000000001</v>
       </c>
       <c r="K435">
         <v>2.3573</v>
@@ -33574,17 +33604,26 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{3843720E-9DE6-4DB6-BDAD-41FB363F6304}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A435">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="A2:A425">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A426:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="41"/>
+  <conditionalFormatting sqref="A436:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="43"/>
+  <conditionalFormatting sqref="A2:A425 A436:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A426:A435">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A426:A435">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A426:A435">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44268,6 +44307,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9F3F5365A3FDE4482CC94C95595C9BA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5153336dd60064f828c223e5de11e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1b7bf358-0949-41bf-a80b-9d228e92562d" xmlns:ns4="f33b62f9-502f-4530-b549-618482849aa6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="07d5fe8109406321ca5c833f7918e7f3" ns3:_="" ns4:_="">
     <xsd:import namespace="1b7bf358-0949-41bf-a80b-9d228e92562d"/>
@@ -44490,22 +44544,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74081C4C-2EEF-42D2-AEBF-47FEC0B1B63D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB615FE7-C264-4A3B-A85A-39B70ECE932D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1b7bf358-0949-41bf-a80b-9d228e92562d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f33b62f9-502f-4530-b549-618482849aa6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F97F1473-95B0-4536-AE76-43F89FA71B14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44522,29 +44586,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74081C4C-2EEF-42D2-AEBF-47FEC0B1B63D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB615FE7-C264-4A3B-A85A-39B70ECE932D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1b7bf358-0949-41bf-a80b-9d228e92562d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f33b62f9-502f-4530-b549-618482849aa6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>